--- a/biology/Médecine/3-Aminobenzamide/3-Aminobenzamide.xlsx
+++ b/biology/Médecine/3-Aminobenzamide/3-Aminobenzamide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 3-aminobenzamide ou méta-aminobenzamide est un benzamide de formule C7H8N2O, dont le groupe amino se trouve en position méta.
@@ -512,9 +524,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce composé peut être préparé par réduction du 3-nitrobenzamide via une hydrogénation catalytique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce composé peut être préparé par réduction du 3-nitrobenzamide via une hydrogénation catalytique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 3-aminobenzamide est un inhibiteur compétitif de la poly(ADP-ribose) polymérase (PARP), une enzyme responsable de la réparation de l'ADN, du contrôle de la transcription et de la mort cellulaire programmée[2]. Il pourrait être utilisé à cet égard comme médicament anticancéreux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 3-aminobenzamide est un inhibiteur compétitif de la poly(ADP-ribose) polymérase (PARP), une enzyme responsable de la réparation de l'ADN, du contrôle de la transcription et de la mort cellulaire programmée. Il pourrait être utilisé à cet égard comme médicament anticancéreux.
 </t>
         </is>
       </c>
